--- a/biology/Histoire de la zoologie et de la botanique/Clarence_Ray_Carpenter/Clarence_Ray_Carpenter.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Clarence_Ray_Carpenter/Clarence_Ray_Carpenter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clarence Ray Carpenter est un primatologue américain né le 28 novembre 1905 dans le Comté de Lincoln (Caroline du Nord) et mort le 1er mars 1975 à Athens (Géorgie). Il fut l'un des premiers chercheurs scientifiques à filmer le comportement des primates dans leur environnement naturel.
-Carpenter obtient sa maîtrise en sciences à l'Université Duke en 1929, où il étudie notamment avec le professeur William McDougall. Il entre ensuite à l'Université Stanford, où il travaille avec le Calvin Perry Stone (en) et obtient un doctorat en 1932[1]. Ses premières recherches portent sur le comportement social des pigeons. De 1931 à 1934, il mène une vaste étude de terrain sur les hurleurs et les singes-arraignées au Panama sous le parrainage du professeur Robert Yerkes[2].
+Carpenter obtient sa maîtrise en sciences à l'Université Duke en 1929, où il étudie notamment avec le professeur William McDougall. Il entre ensuite à l'Université Stanford, où il travaille avec le Calvin Perry Stone (en) et obtient un doctorat en 1932. Ses premières recherches portent sur le comportement social des pigeons. De 1931 à 1934, il mène une vaste étude de terrain sur les hurleurs et les singes-arraignées au Panama sous le parrainage du professeur Robert Yerkes.
 </t>
         </is>
       </c>
